--- a/data/case1/18/P1_14.xlsx
+++ b/data/case1/18/P1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12041887458937595</v>
+        <v>0.083041962128703517</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999998541449031</v>
+        <v>-0.0099999998794295664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999998557601657</v>
+        <v>-0.0089999998811194359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399745398165521</v>
+        <v>0.28399739145656966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999998601023563</v>
+        <v>-0.0059999998854127767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999998550424039</v>
+        <v>-0.017981575157545393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999828263171</v>
+        <v>-0.015394626385566212</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999826683101</v>
+        <v>-0.019999999855564887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999998510269492</v>
+        <v>-0.0059999998795330356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999998494078</v>
+        <v>-0.0059999998791582243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999998522037288</v>
+        <v>-0.0044999998817552012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.012156487652486447</v>
+        <v>-0.0059999998791160358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999998466659932</v>
+        <v>-0.0059999998792283904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999834707786</v>
+        <v>-0.0119999998688467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999998453665881</v>
+        <v>-0.0059999998797186649</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999998448447833</v>
+        <v>0.042578451956439167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999998441488955</v>
+        <v>-0.0059999998797408693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999998383696322</v>
+        <v>-0.0089999998743381937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027713977239540721</v>
+        <v>-0.048086555696103872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999998513770052</v>
+        <v>-0.0089999998798067082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.059105718171557964</v>
+        <v>-0.0089999998796308489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999998503533796</v>
+        <v>-0.0089999998794896285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999998545193804</v>
+        <v>-0.0089999998800740499</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04199999979051583</v>
+        <v>-0.041999999820113487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999789416265</v>
+        <v>-0.041999999819116951</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999998546302891</v>
+        <v>-0.0059999998806716803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999998539166377</v>
+        <v>-0.0059999998800215337</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999998515278818</v>
+        <v>-0.005999999877309925</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999838730346</v>
+        <v>-0.011999999864871214</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999823063774</v>
+        <v>-0.019999999849874772</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999831553978</v>
+        <v>-0.0149999998573076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999820272564</v>
+        <v>-0.020999999846541328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.010792168623632747</v>
+        <v>-0.0059999998727615633</v>
       </c>
     </row>
   </sheetData>
